--- a/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Хи-квадрат_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Хи-квадрат_result.xlsx
@@ -463,7 +463,7 @@
         <v>500</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2075</v>
+        <v>12.2076</v>
       </c>
       <c r="D2" t="n">
         <v>0.0159</v>
@@ -522,7 +522,7 @@
         <v>1.5667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8147</v>
+        <v>0.8148</v>
       </c>
     </row>
     <row r="7">

--- a/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Хи-квадрат_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Хи-квадрат_result.xlsx
@@ -463,10 +463,10 @@
         <v>500</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2076</v>
+        <v>5490601.8474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>500</v>
       </c>
       <c r="C3" t="n">
-        <v>3.9233</v>
+        <v>0.4637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4165</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>4.2983</v>
+        <v>3.2394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3671</v>
+        <v>0.3562</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>500</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6862</v>
+        <v>1.0849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.953</v>
+        <v>0.7806999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>1.5667</v>
+        <v>13.0433</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8148</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>500</v>
       </c>
       <c r="C7" t="n">
-        <v>2.5242</v>
+        <v>386.978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6403</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
